--- a/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 2020.xlsx
+++ b/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 2020.xlsx
@@ -452,6 +452,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -713,6 +714,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -956,6 +958,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 2020.xlsx
+++ b/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 2020.xlsx
@@ -644,25 +644,25 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>39.13</v>
+        <v>65.22</v>
       </c>
       <c r="H6">
-        <v>60.87</v>
+        <v>34.78</v>
       </c>
       <c r="I6">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>60.87</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -830,22 +830,25 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>91.3</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I4">
+        <v>8.800000000000001</v>
       </c>
       <c r="J4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -862,22 +865,25 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>77.78</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>22.22</v>
+      </c>
+      <c r="I5">
+        <v>8.1</v>
       </c>
       <c r="J5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -894,22 +900,25 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>56.52</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>43.48</v>
+      </c>
+      <c r="I6">
+        <v>7.4</v>
       </c>
       <c r="J6">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>39.13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1092,7 +1101,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1115,19 +1124,19 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>77.78</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>22.22</v>
       </c>
       <c r="I5">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1150,25 +1159,25 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>39.13</v>
+        <v>65.22</v>
       </c>
       <c r="H6">
-        <v>60.87</v>
+        <v>34.78</v>
       </c>
       <c r="I6">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>60.87</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="7" spans="1:11">

--- a/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 2020.xlsx
+++ b/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 2020.xlsx
@@ -679,25 +679,25 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>75</v>
+        <v>83.33</v>
       </c>
       <c r="H7">
-        <v>25</v>
+        <v>16.67</v>
       </c>
       <c r="I7">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -935,22 +935,25 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>86.11</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>13.89</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1194,25 +1197,25 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>75</v>
+        <v>86.11</v>
       </c>
       <c r="H7">
-        <v>25</v>
+        <v>13.89</v>
       </c>
       <c r="I7">
-        <v>9.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 2020.xlsx
+++ b/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 2020.xlsx
@@ -504,25 +504,25 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>65.38</v>
+        <v>73.08</v>
       </c>
       <c r="H2">
-        <v>34.62</v>
+        <v>26.92</v>
       </c>
       <c r="I2">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>34.62</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -539,25 +539,25 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>65.38</v>
+        <v>76.92</v>
       </c>
       <c r="H3">
-        <v>34.62</v>
+        <v>23.08</v>
       </c>
       <c r="I3">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K3">
-        <v>34.62</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -766,22 +766,25 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>53.85</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>46.15</v>
+      </c>
+      <c r="I2">
+        <v>8.800000000000001</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -798,22 +801,25 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>53.85</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>46.15</v>
+      </c>
+      <c r="I3">
+        <v>8.199999999999999</v>
       </c>
       <c r="J3">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1022,25 +1028,25 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>65.38</v>
+        <v>73.08</v>
       </c>
       <c r="H2">
-        <v>34.62</v>
+        <v>26.92</v>
       </c>
       <c r="I2">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>34.62</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1057,25 +1063,25 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>65.38</v>
+        <v>76.92</v>
       </c>
       <c r="H3">
-        <v>34.62</v>
+        <v>23.08</v>
       </c>
       <c r="I3">
         <v>7.9</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K3">
-        <v>34.62</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="4" spans="1:11">
